--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,16 +410,16 @@
         <v>Website</v>
       </c>
       <c r="C1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="D1" t="str">
         <v>Industry</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Company size</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Headquarters</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Phone</v>
       </c>
       <c r="G1" t="str">
         <v>Founded</v>
@@ -430,631 +430,678 @@
       <c r="I1" t="str">
         <v>Typical time on-site</v>
       </c>
-      <c r="J1" t="str" xml:space="preserve">
+      <c r="J1" t="str">
+        <v>Featured benefits</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Pay adjustment</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Vaccine policy</v>
+      </c>
+      <c r="M1" t="str" xml:space="preserve">
         <v xml:space="preserve">
         On-site
       </v>
       </c>
-      <c r="K1" t="str" xml:space="preserve">
+      <c r="N1" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Hybrid
       </v>
       </c>
-      <c r="L1" t="str" xml:space="preserve">
+      <c r="O1" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Remote
       </v>
       </c>
-      <c r="M1" t="str">
-        <v>Featured benefits</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Pay adjustment</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>For Education</v>
+        <v>Mindo Education</v>
       </c>
       <c r="B2" t="str">
-        <v>https://fatmacademy.com/regist100/mba2/</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Education</v>
+        <v>http://www.mindoeducation.co.id</v>
+      </c>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">082217777616
+Phone number is 082217777616</v>
       </c>
       <c r="D2" t="str">
-        <v>11-50 employees</v>
+        <v>Higher Education</v>
       </c>
       <c r="E2" t="str">
-        <v>riyadh, 'Asir</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Education Saudi</v>
-      </c>
-      <c r="B3" t="str">
-        <v>https://www.education-saudi.com/</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Education</v>
-      </c>
-      <c r="D3" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Riyadh, Saudi Arabia</v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">+971 58 633 5225
-Phone number is +971 58 633 5225</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>MBSC Executive Education</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Education Management</v>
-      </c>
-      <c r="D4" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E4" t="str">
-        <v>King Abdullah Economic City, Western Region</v>
-      </c>
-      <c r="G4" t="str">
-        <v>2016</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Executive Education, Training, Entrepreneurship, Professional Development, Human Capital, and Training &amp; Development</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>NOW for training and education</v>
-      </c>
-      <c r="B5" t="str">
-        <v>http://www.now.sa</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Education Management</v>
-      </c>
-      <c r="D5" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="G5" t="str">
-        <v>2004</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Training, Consulting, Education, and Coaching</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>CMAS Education</v>
-      </c>
-      <c r="B6" t="str">
-        <v>http://www.cmasedu.com/</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Education Management</v>
-      </c>
-      <c r="D6" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="G6" t="str">
-        <v>2006</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Provide high quality education to our society., Transfer the global experience to local environment., Develop HR in the business field., Flexibility with affordability., Trainings for Top Corporates, MBA, Masters, Bachelor, Training, Business, Marketing, Finance, Entrepreneurship, and Accounting</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>Continuing Education DAH</v>
-      </c>
-      <c r="B7" t="str">
-        <v>http://ce.dah.edu.sa/ar</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Higher Education</v>
-      </c>
-      <c r="D7" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Saudi Arabia, Jeddah, Makkah</v>
-      </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">0550537400
-Phone number is 0550537400</v>
-      </c>
-      <c r="G7" t="str">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>Ukuni Education Services</v>
-      </c>
-      <c r="B8" t="str">
-        <v>https://ukuni.org/</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Education</v>
-      </c>
-      <c r="D8" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Riyadh , Riyadh</v>
-      </c>
-      <c r="F8" t="str" xml:space="preserve">
-        <v xml:space="preserve">+966112754606
-Phone number is +966112754606</v>
-      </c>
-      <c r="G8" t="str">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Alithra Applied Vocational Education Company</v>
-      </c>
-      <c r="B9" t="str">
-        <v>http://www.alithra.edu.sa</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Education</v>
-      </c>
-      <c r="D9" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Riyadh, Riyadh</v>
-      </c>
-      <c r="G9" t="str">
-        <v>2022</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Training, Development, Education, Vocational, Consulting, Advisory services, Solution focused, Turnkey, Projects, and Academic</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Green Building Education and Research Academy</v>
-      </c>
-      <c r="B10" t="str">
-        <v>http://gbera.org</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Professional Training and Coaching</v>
-      </c>
-      <c r="D10" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="G10" t="str">
-        <v>2018</v>
-      </c>
-      <c r="H10" t="str">
-        <v>LEED, Green Building, Sustainability, Green Education, WELL Rating System, LEED Rating System, Energy Efficient, Passive Design, Sustainable Architecture, Healthy Designs, Estidama, Project Management, Business management, Ecology, LEED Green Associate, carbon footprint, Integrative design, Engineering, Construction, Consultancy, and Initiative</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>Barr Education Services</v>
-      </c>
-      <c r="B11" t="str">
-        <v>http://www.askbarr.com</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Education</v>
-      </c>
-      <c r="D11" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Jeddah, Makkah</v>
-      </c>
-      <c r="F11" t="str" xml:space="preserve">
-        <v xml:space="preserve">+966580345345
-Phone number is +966580345345</v>
-      </c>
-      <c r="G11" t="str">
-        <v>2019</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Education Services, Learning Paths, and Humanity</v>
-      </c>
-      <c r="I11" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F2" t="str">
+        <v>South Jakarta, DKI Jakarta</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2017</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Food Safety, ISO 9001:2015, ISO 14001:2015, ISO 45001:2018, HACCP, ISO 22000:2018, Quality Control, Quality Assurance, Fisheries, Environmental Management System, Information Technology, Digital Marketing, Online Training, and Education</v>
+      </c>
+      <c r="I2" t="str">
         <v>Flexible</v>
       </c>
-      <c r="J11" t="str" xml:space="preserve">
+      <c r="J2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Flexible Working Hours
+Flexible Working Location
+Work From Home (WFH) Options</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Employee location does not impact pay</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Recommended for on-site work</v>
+      </c>
+      <c r="M2" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Employees come to work in person.
       </v>
       </c>
-      <c r="K11" t="str" xml:space="preserve">
+      <c r="N2" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Employees work on-site and off-site.
       </v>
       </c>
-      <c r="L11" t="str" xml:space="preserve">
+      <c r="O2" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Employees work remotely.
       </v>
       </c>
     </row>
-    <row r="12">
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>Education Republic</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://www.myeducationrepublic.com/</v>
+      </c>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">+6282133336363
+Phone number is +6282133336363</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Education</v>
+      </c>
+      <c r="E3" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Batam, Bali, Pekanbaru, Medan, Riau Islands</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2017</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Study Abroad Planning &amp; Consulting</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Yes Education Group</v>
+      </c>
+      <c r="B4" t="str">
+        <v>http://yesedugroup.com.au</v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">+61291892324
+Phone number is +61291892324</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="E4" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Sydney, New South Wales</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2009</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Education and Australian Education</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Solve Education! Foundation</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://solveeducation.org</v>
+      </c>
+      <c r="D5" t="str">
+        <v>E-Learning Providers</v>
+      </c>
+      <c r="E5" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Bandung City, West Java</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2015</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Education, Technology, Pedagogy, and Gaming</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Education Indonesia</v>
+      </c>
+      <c r="B6" t="str">
+        <v>http://www.education-indonesia.org</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Education Management</v>
+      </c>
+      <c r="E6" t="str">
+        <v>11-50 employees</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Codero Education</v>
+      </c>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">02150915010
+Phone number is 02150915010</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Primary and Secondary Education</v>
+      </c>
+      <c r="E7" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Tangerang Selatan, Banten</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2021</v>
+      </c>
+      <c r="H7" t="str">
+        <v>coding, Robot, education, 4.0education, and creative</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Education Hub ID</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://discord.gg/G9798mSbFJ</v>
+      </c>
+      <c r="D8" t="str">
+        <v>E-Learning Providers</v>
+      </c>
+      <c r="E8" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Salatiga, Central Java</v>
+      </c>
+      <c r="G8" t="str">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Cornerstone Education Indonesia</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Education Management</v>
+      </c>
+      <c r="E9" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2019</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Mentorship, College, Education, Network, Indonesia, Students, and Growth</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Ambis Education</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://ambis.io</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Education</v>
+      </c>
+      <c r="E10" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Sumatera Utara, Indonesia</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2020</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Education, Test Preparation, E-Learning, and Education Technology</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Torche Education</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://torche.app</v>
+      </c>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">6285155216117
+Phone number is 6285155216117</v>
+      </c>
+      <c r="D11" t="str">
+        <v>E-Learning Providers</v>
+      </c>
+      <c r="E11" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Tangerang, Banten</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2020</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Chemical Engineering, Bioprocess Engineering, and Process Engineering</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v>Go Education (GoEd)</v>
+        <v>Digital Education Network</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.instagram.com/goed.sa/</v>
-      </c>
-      <c r="C12" t="str">
+        <v>https://digitaledunet.com</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">+6281328427382
+Phone number is +6281328427382</v>
+      </c>
+      <c r="D12" t="str">
         <v>Education Management</v>
       </c>
-      <c r="D12" t="str">
-        <v>11-50 employees</v>
+      <c r="E12" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Kelapa Gading, North Jakarta</v>
       </c>
       <c r="G12" t="str">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H12" t="str">
-        <v>education, mentorships, workshops, highschool, university, university applications, webinars, nonprofit, arab youth, youth, and educational programs</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>higher education, study abroad, and scholarship</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
-        <v>Numou Education Center</v>
+        <v>Northern Lights Education Center</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.numoucenter.org/</v>
-      </c>
-      <c r="C13" t="str">
+        <v>http://nlec.co.id/</v>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">021-50847172
+Phone number is 021-50847172</v>
+      </c>
+      <c r="D13" t="str">
         <v>Primary and Secondary Education</v>
       </c>
-      <c r="D13" t="str">
-        <v>11-50 employees</v>
+      <c r="E13" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F13" t="str">
+        <v>DKI Jakarta , South Jakarta</v>
       </c>
       <c r="G13" t="str">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2013</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Education, Japanese Language Training, Consulting, JLPT, and Japanese Course</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
-        <v>eTutor Education</v>
+        <v>Okra Education</v>
       </c>
       <c r="B14" t="str">
-        <v>http://www.etutorsmart.com</v>
-      </c>
-      <c r="C14" t="str">
-        <v>E-Learning Providers</v>
+        <v>https://www.okra.education/</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">+ 1 (332) 287-83-88
+Phone number is + 1 (332) 287-83-88</v>
       </c>
       <c r="D14" t="str">
-        <v>11-50 employees</v>
+        <v>Education</v>
       </c>
       <c r="E14" t="str">
-        <v>Al Murabba, Riyadh</v>
+        <v>11-50 employees</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Kuta, Bali</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2023</v>
       </c>
       <c r="H14" t="str">
-        <v>E-learning, Digital Tutor, Medical Entrance , Engineering Entrance, CBSE, ICSE, State Syllabus, and Self learning</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>MALEEN EDUCATION</v>
-      </c>
-      <c r="B15" t="str">
-        <v>http://www.maleeneducation.com/</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Higher Education</v>
-      </c>
-      <c r="D15" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Riyadh, Ar Riyadh</v>
-      </c>
-      <c r="F15" t="str" xml:space="preserve">
-        <v xml:space="preserve">00966544491156
-Phone number is 00966544491156</v>
-      </c>
-      <c r="G15" t="str">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Hadaba Education Company</v>
-      </c>
-      <c r="B16" t="str">
-        <v>www.hadabagroup.com</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Education</v>
-      </c>
-      <c r="D16" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="G16" t="str">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
-        <v>Shamsieh Education</v>
-      </c>
-      <c r="B17" t="str">
-        <v>https://www.shamsieh.education/?fbclid=IwAR1IE4fYDOWVqc2M_DLPyjdyPuZGUQgQbsK0nKrumDUA6C0icvrLHd9CJk8</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Education</v>
-      </c>
-      <c r="D17" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Riyadh, Riyadh</v>
-      </c>
-      <c r="F17" t="str" xml:space="preserve">
-        <v xml:space="preserve">0096265164330
-Phone number is 0096265164330</v>
-      </c>
-      <c r="G17" t="str">
-        <v>2021</v>
-      </c>
-      <c r="J17" t="str" xml:space="preserve">
+        <v>Excel, Data analyst, Education, and Boost your career</v>
+      </c>
+      <c r="J14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Remote Working Options
+Virtual Team Events
+Work From Home (WFH) Options</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Employee location does not impact pay</v>
+      </c>
+      <c r="M14" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Employees come to work in person.
       </v>
       </c>
-      <c r="K17" t="str" xml:space="preserve">
+      <c r="N14" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Employees work on-site and off-site.
       </v>
       </c>
-      <c r="L17" t="str" xml:space="preserve">
+      <c r="O14" t="str" xml:space="preserve">
         <v xml:space="preserve">
         Employees work remotely.
       </v>
       </c>
     </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Genza Education</v>
+      </c>
+      <c r="B15" t="str">
+        <v>genzaeducation.com</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">082133221213
+Phone number is 082133221213</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Education</v>
+      </c>
+      <c r="E15" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Sleman, Yogyakarta</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Planet Education</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://www.youtube.com/channel/UC-nrDD3Vvh93oa3DNyxkdKQ</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">08715671136
+Phone number is 08715671136</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Primary and Secondary Education</v>
+      </c>
+      <c r="E16" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G16" t="str">
+        <v>2020</v>
+      </c>
+      <c r="H16" t="str">
+        <v>pendidikan, edtech, education, E-Learning, and Bimbel</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Shine Education Consultant</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://shine.co.id/</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">081212963500
+Phone number is 081212963500</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Education</v>
+      </c>
+      <c r="E17" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Jakarta Barat, DKI Jakarta</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2022</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Education</v>
+      </c>
+    </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Rwaq رواق</v>
+        <v>English Education Study Program, FKIP Universitas Jambi</v>
       </c>
       <c r="B18" t="str">
-        <v>http://www.rwaq.org</v>
-      </c>
-      <c r="C18" t="str">
-        <v>E-Learning Providers</v>
+        <v>http://www.english.unja.ac.id</v>
       </c>
       <c r="D18" t="str">
-        <v>11-50 employees</v>
+        <v>Higher Education</v>
       </c>
       <c r="E18" t="str">
-        <v>Al Nakheel, Riyadh</v>
-      </c>
-      <c r="G18" t="str">
-        <v>2013</v>
+        <v>11-50 employees</v>
       </c>
       <c r="H18" t="str">
-        <v>Education, Technology, Higher Education, E-learning, Arabic, and MOOC</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
+        <v>Higher Education, English language education, and Teacher training and education</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="str">
-        <v>PLAYBOOK</v>
+        <v>Active Education</v>
       </c>
       <c r="B19" t="str">
-        <v>https://www.get-playbook.com</v>
-      </c>
-      <c r="C19" t="str">
-        <v>E-Learning Providers</v>
+        <v>http://www.activeeducation.no</v>
       </c>
       <c r="D19" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="F19" t="str" xml:space="preserve">
-        <v xml:space="preserve">+973 17536092
-Phone number is +973 17536092</v>
-      </c>
-      <c r="G19" t="str">
-        <v>2021</v>
-      </c>
-      <c r="H19" t="str">
-        <v>Education, EdTech, Edutainment, Online Learning, MasterClass, Web Platform, Application, Media, Gender Equality, Women, Leadership, Personal Development, Professional Development, Mentorship, Scaling, and Growth Mindset</v>
-      </c>
-      <c r="I19" t="str">
-        <v>4 days per week</v>
-      </c>
-      <c r="J19" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-        Employees come to work in person.
-      </v>
-      </c>
-      <c r="K19" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-        Employees work on-site and off-site.
-      </v>
-      </c>
-      <c r="L19" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-        Employees work remotely.
-      </v>
-      </c>
-      <c r="M19" t="str" xml:space="preserve">
-        <v xml:space="preserve">Flexible Working Hours
-Work From Home (WFH) Options
-Dedicated Focus Hours</v>
-      </c>
-      <c r="N19" t="str">
-        <v>Based on employee country</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>Higher Education</v>
+      </c>
+      <c r="E19" t="str">
+        <v>11-50 employees</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
-        <v>ABC Diagnostic and Learning Center</v>
+        <v>Business Education UPI</v>
       </c>
       <c r="B20" t="str">
-        <v>http://abc-ksa.com/</v>
-      </c>
-      <c r="C20" t="str">
+        <v>http://pendidikanbisnis.upi.edu/</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">+62 22 2007634
+Phone number is +62 22 2007634</v>
+      </c>
+      <c r="D20" t="str">
         <v>Education Management</v>
       </c>
-      <c r="D20" t="str">
-        <v>11-50 employees</v>
+      <c r="E20" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Bandung, West Java</v>
       </c>
       <c r="G20" t="str">
-        <v>2011</v>
+        <v>1982</v>
       </c>
       <c r="H20" t="str">
-        <v>Special Education, Learning Difficulties, teaching, speech therapy, behavior modification, Applied Behavioral Analysis (ABA), Intervention programs, Individualized Educational Plans, Psycho-educational Assessments, and Training</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>edupreneur, education, business, entrepreneur, researcher, and entrepreneurship</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
-        <v>Professional Renewable Energy Institute</v>
+        <v>Gold Star Education</v>
       </c>
       <c r="B21" t="str">
-        <v>https://professional-institute.com/</v>
-      </c>
-      <c r="C21" t="str">
-        <v>E-Learning Providers</v>
+        <v>http://www.goldstareducation.com</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">+62818886193
+Phone number is +62818886193</v>
       </c>
       <c r="D21" t="str">
-        <v>11-50 employees</v>
+        <v>Education Management</v>
+      </c>
+      <c r="E21" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Penjaringan, Jakarta</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2018</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Tuition Center, Certified Test, Home Tuition, Education Agent, and Online Tuition</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
-        <v>UNESCO | RCQE</v>
+        <v>Empower Education Global Indonesia</v>
       </c>
       <c r="B22" t="str">
-        <v>http://www.rcqe.org</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Education Management</v>
+        <v>http://www.konsultanpendidikan.com</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">0877-08778670
+Phone number is 0877-08778670</v>
       </c>
       <c r="D22" t="str">
-        <v>11-50 employees</v>
+        <v>Higher Education</v>
       </c>
       <c r="E22" t="str">
-        <v>Jubail, Ash Sharqiyah</v>
-      </c>
-      <c r="F22" t="str" xml:space="preserve">
-        <v xml:space="preserve">+966133400444
-Phone number is +966133400444</v>
+        <v>11-50 employees</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Jakarta Barat, DKI Jakarta</v>
       </c>
       <c r="G22" t="str">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="H22" t="str">
-        <v>Develop best practices related to quality teaching and learning, Validate and benchmark current practices against the most effective education systems, and Develop research programs of a global quality to develop world class 0-12 education.</v>
+        <v>Education, Consultant , Overseas Education Consultant, Study Abroad , Empower Education Global, Empower Education , Overseas Study, Visa Administration , Coaching , and Translation</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v>Integrated Learning Training Center</v>
+        <v>Hamaren Education Center (Education &amp;amp; SO)</v>
       </c>
       <c r="B23" t="str">
-        <v>https://iltc.edu.sa</v>
-      </c>
-      <c r="C23" t="str">
-        <v>E-Learning Providers</v>
+        <v>https://hamaren.co.id/</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">+62852-1547-8888
+Phone number is +62852-1547-8888</v>
       </c>
       <c r="D23" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="F23" t="str" xml:space="preserve">
-        <v xml:space="preserve">966581831560
-Phone number is 966581831560</v>
+        <v>Primary and Secondary Education</v>
+      </c>
+      <c r="E23" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Bekasi, Jawa Barat</v>
       </c>
       <c r="G23" t="str">
-        <v>2013</v>
-      </c>
-      <c r="H23" t="str">
-        <v>Civil Engineering, Mechanical Engineering, Electrical Engineering, Architectural Engineering, and Autocad</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
       <c r="A24" t="str">
-        <v>Industrial Technical Training Institute</v>
+        <v>Indonesia Cyber Education Institute</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.itti.edu.sa</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Professional Training and Coaching</v>
+        <v>https://icei.ac.id</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">081250504200
+Phone number is 081250504200</v>
       </c>
       <c r="D24" t="str">
-        <v>11-50 employees</v>
+        <v>E-learning</v>
       </c>
       <c r="E24" t="str">
-        <v>Dammam, Eastern Province</v>
-      </c>
-      <c r="F24" t="str" xml:space="preserve">
-        <v xml:space="preserve">0138191792
-Phone number is 0138191792</v>
+        <v>11-50 employees</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Pondok Cabe Udik, Banten</v>
       </c>
       <c r="G24" t="str">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="H24" t="str">
-        <v>Training Center, NDT Service and Training, Safety, NEBOSH Accredited Center, OSHA Accredited Center, ISO Accredited Center, Approved HABC Center, Defensive Driving Course, and Education</v>
+        <v>e-learning</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>National IT Academy (NITA)</v>
+        <v>Genius Education Indonesia</v>
       </c>
       <c r="B25" t="str">
-        <v>https://nita.edu.sa</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Higher Education</v>
+        <v>https://genius.education/</v>
       </c>
       <c r="D25" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="H25" t="str">
-        <v>Information Technology, Education, Higher Education, Diploma Courses, Certification Courses, and Long Term Courses</v>
+        <v>E-Learning Providers</v>
+      </c>
+      <c r="E25" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2021</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v>Geek Express</v>
+        <v>Language Education Center (LEC)</v>
       </c>
       <c r="B26" t="str">
-        <v>http://www.geekexpress.com/</v>
-      </c>
-      <c r="C26" t="str">
-        <v>E-Learning Providers</v>
+        <v>http://lec.co.id/</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">0851-6296-7173
+Phone number is 0851-6296-7173</v>
       </c>
       <c r="D26" t="str">
-        <v>11-50 employees</v>
+        <v>Education</v>
       </c>
       <c r="E26" t="str">
-        <v>Dubai, Dubai</v>
-      </c>
-      <c r="F26" t="str" xml:space="preserve">
-        <v xml:space="preserve">+971 585402810
-Phone number is +971 585402810</v>
+        <v>11-50 employees</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Kartasura, Central Java</v>
       </c>
       <c r="G26" t="str">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="H26" t="str">
-        <v>Do It Yourself, Maker Movement, 3D Printing, Coding, Consumer Electronics, Workshops, STEAM EDUCATION, online learning, and computer science</v>
+        <v>Education, English Training, and Laboratory Building</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -977,131 +977,9 @@
         <v>Tuition Center, Certified Test, Home Tuition, Education Agent, and Online Tuition</v>
       </c>
     </row>
-    <row r="22" xml:space="preserve">
-      <c r="A22" t="str">
-        <v>Empower Education Global Indonesia</v>
-      </c>
-      <c r="B22" t="str">
-        <v>http://www.konsultanpendidikan.com</v>
-      </c>
-      <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">0877-08778670
-Phone number is 0877-08778670</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Higher Education</v>
-      </c>
-      <c r="E22" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="F22" t="str">
-        <v>Jakarta Barat, DKI Jakarta</v>
-      </c>
-      <c r="G22" t="str">
-        <v>2021</v>
-      </c>
-      <c r="H22" t="str">
-        <v>Education, Consultant , Overseas Education Consultant, Study Abroad , Empower Education Global, Empower Education , Overseas Study, Visa Administration , Coaching , and Translation</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23" t="str">
-        <v>Hamaren Education Center (Education &amp;amp; SO)</v>
-      </c>
-      <c r="B23" t="str">
-        <v>https://hamaren.co.id/</v>
-      </c>
-      <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">+62852-1547-8888
-Phone number is +62852-1547-8888</v>
-      </c>
-      <c r="D23" t="str">
-        <v>Primary and Secondary Education</v>
-      </c>
-      <c r="E23" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Bekasi, Jawa Barat</v>
-      </c>
-      <c r="G23" t="str">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>Indonesia Cyber Education Institute</v>
-      </c>
-      <c r="B24" t="str">
-        <v>https://icei.ac.id</v>
-      </c>
-      <c r="C24" t="str" xml:space="preserve">
-        <v xml:space="preserve">081250504200
-Phone number is 081250504200</v>
-      </c>
-      <c r="D24" t="str">
-        <v>E-learning</v>
-      </c>
-      <c r="E24" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Pondok Cabe Udik, Banten</v>
-      </c>
-      <c r="G24" t="str">
-        <v>2019</v>
-      </c>
-      <c r="H24" t="str">
-        <v>e-learning</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Genius Education Indonesia</v>
-      </c>
-      <c r="B25" t="str">
-        <v>https://genius.education/</v>
-      </c>
-      <c r="D25" t="str">
-        <v>E-Learning Providers</v>
-      </c>
-      <c r="E25" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="G25" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>Language Education Center (LEC)</v>
-      </c>
-      <c r="B26" t="str">
-        <v>http://lec.co.id/</v>
-      </c>
-      <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">0851-6296-7173
-Phone number is 0851-6296-7173</v>
-      </c>
-      <c r="D26" t="str">
-        <v>Education</v>
-      </c>
-      <c r="E26" t="str">
-        <v>11-50 employees</v>
-      </c>
-      <c r="F26" t="str">
-        <v>Kartasura, Central Java</v>
-      </c>
-      <c r="G26" t="str">
-        <v>2004</v>
-      </c>
-      <c r="H26" t="str">
-        <v>Education, English Training, and Laboratory Building</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O21"/>
   </ignoredErrors>
 </worksheet>
 </file>